--- a/bn_cb_okx_info.xlsx
+++ b/bn_cb_okx_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zzzzzioi_/Desktop/CodeStorage/TokenList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B388BCED-9703-D84C-99C6-7ED5A5315CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4916C352-CA75-E447-A420-A29192CC7FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1242,77 +1242,71 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E2">
-        <v>30069</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="F2">
-        <v>584439715817</v>
-      </c>
-      <c r="G2">
-        <v>631586343080</v>
-      </c>
-      <c r="H2">
-        <v>0.92535204761856582</v>
+        <v>2743738704</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>1905.8</v>
+        <v>0.85811199999999999</v>
       </c>
       <c r="F3">
-        <v>229024481136</v>
-      </c>
-      <c r="G3">
-        <v>229024481136</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+        <v>804589247</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="E4">
-        <v>0.99999800000000005</v>
+        <v>1905.8</v>
       </c>
       <c r="F4">
-        <v>83750304923</v>
+        <v>229024481136</v>
       </c>
       <c r="G4">
-        <v>83750304923</v>
+        <v>229024481136</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1320,1348 +1314,1354 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>26.46</v>
+        <v>0.99999800000000005</v>
       </c>
       <c r="F5">
-        <v>10647777403</v>
+        <v>83750304923</v>
       </c>
       <c r="G5">
-        <v>14614132303</v>
+        <v>83750304923</v>
       </c>
       <c r="H5">
-        <v>0.72859456738421724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="E6">
-        <v>0.766482</v>
+        <v>34.67</v>
       </c>
       <c r="F6">
-        <v>7142184194</v>
+        <v>677682170</v>
       </c>
       <c r="G6">
-        <v>7663724340</v>
+        <v>677682170</v>
       </c>
       <c r="H6">
-        <v>0.93194690690035964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>14.24</v>
+        <v>0.31872600000000001</v>
       </c>
       <c r="F7">
-        <v>4923011366</v>
+        <v>319343583</v>
       </c>
       <c r="G7">
-        <v>10248161249</v>
+        <v>319343583</v>
       </c>
       <c r="H7">
-        <v>0.48037996733124982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="E8">
-        <v>30054</v>
+        <v>0.20497899999999999</v>
       </c>
       <c r="F8">
-        <v>4744773034</v>
+        <v>203581135</v>
       </c>
       <c r="G8">
-        <v>4744773334</v>
+        <v>203581135</v>
       </c>
       <c r="H8">
-        <v>0.99999993677253285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E9">
-        <v>7.8199999999999997E-6</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F9">
-        <v>4609143955</v>
+        <v>123924163</v>
       </c>
       <c r="G9">
-        <v>7820795716</v>
+        <v>123924163</v>
       </c>
       <c r="H9">
-        <v>0.58934462967374102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>23</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E10">
-        <v>7.13</v>
+        <v>6.6153000000000003E-2</v>
       </c>
       <c r="F10">
-        <v>3670903052</v>
+        <v>66197383</v>
       </c>
       <c r="G10">
-        <v>7099020013</v>
+        <v>66197383</v>
       </c>
       <c r="H10">
-        <v>0.51709997228880888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>24</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="E11">
-        <v>0.127108</v>
+        <v>0.136014</v>
       </c>
       <c r="F11">
-        <v>3448906493</v>
+        <v>59387843</v>
       </c>
       <c r="G11">
-        <v>6354497556</v>
+        <v>59387843</v>
       </c>
       <c r="H11">
-        <v>0.54275046336960142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>27</v>
+        <v>383</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="E12">
-        <v>9.3800000000000008</v>
+        <v>0.38647700000000001</v>
       </c>
       <c r="F12">
-        <v>2743738704</v>
-      </c>
-      <c r="H12" t="s">
-        <v>101</v>
+        <v>57805891</v>
+      </c>
+      <c r="G12">
+        <v>57805891</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>18.989999999999998</v>
+        <v>30054</v>
       </c>
       <c r="F13">
-        <v>2694187758</v>
+        <v>4744773034</v>
       </c>
       <c r="G13">
-        <v>3996843755</v>
+        <v>4744773334</v>
       </c>
       <c r="H13">
-        <v>0.67407882898339622</v>
+        <v>0.99999993677253285</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E14">
-        <v>2.0499999999999998</v>
+        <v>2.66</v>
       </c>
       <c r="F14">
-        <v>1798512531</v>
+        <v>855742759</v>
       </c>
       <c r="G14">
-        <v>2046665879</v>
+        <v>857675583</v>
       </c>
       <c r="H14">
-        <v>0.8787523891680612</v>
+        <v>0.99774643928507412</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="E15">
-        <v>4.08</v>
+        <v>0.203239</v>
       </c>
       <c r="F15">
-        <v>1789570576</v>
+        <v>301859562</v>
       </c>
       <c r="G15">
-        <v>1912938446</v>
+        <v>303915635</v>
       </c>
       <c r="H15">
-        <v>0.93550870899271998</v>
+        <v>0.99323472449846151</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>34</v>
+        <v>529</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="E16">
-        <v>5.2266E-2</v>
+        <v>0.32447799999999999</v>
       </c>
       <c r="F16">
-        <v>1689564255</v>
+        <v>32313885</v>
       </c>
       <c r="G16">
-        <v>2615629390</v>
+        <v>32541208</v>
       </c>
       <c r="H16">
-        <v>0.64594940761083897</v>
+        <v>0.99301430358700882</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>36</v>
+        <v>589</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E17">
-        <v>1.3</v>
+        <v>10.73</v>
       </c>
       <c r="F17">
-        <v>1661483809</v>
+        <v>26466884</v>
       </c>
       <c r="G17">
-        <v>13031245558</v>
+        <v>26704984</v>
       </c>
       <c r="H17">
-        <v>0.12750000002724221</v>
+        <v>0.99108406131230031</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>40</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="E18">
-        <v>1.48</v>
+        <v>0.95466700000000004</v>
       </c>
       <c r="F18">
-        <v>1391983526</v>
+        <v>48780140</v>
       </c>
       <c r="G18">
-        <v>1484123958</v>
+        <v>50296796</v>
       </c>
       <c r="H18">
-        <v>0.9379159459670956</v>
+        <v>0.96984587248857757</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="E19">
-        <v>74.16</v>
+        <v>0.93026500000000001</v>
       </c>
       <c r="F19">
-        <v>1075105697</v>
+        <v>71931846</v>
       </c>
       <c r="G19">
-        <v>1187449519</v>
+        <v>74463607</v>
       </c>
       <c r="H19">
-        <v>0.90539065433736554</v>
+        <v>0.96600002199732282</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>45</v>
+        <v>2840</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="E20">
-        <v>1.51</v>
+        <v>3.3972899999999999E-3</v>
       </c>
       <c r="F20">
-        <v>973502722</v>
+        <v>161650</v>
       </c>
       <c r="G20">
-        <v>6486497366</v>
+        <v>168632</v>
       </c>
       <c r="H20">
-        <v>0.15008141791635779</v>
+        <v>0.95859623321789456</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" t="s">
-        <v>212</v>
-      </c>
       <c r="E21">
-        <v>36.659999999999997</v>
+        <v>1.48</v>
       </c>
       <c r="F21">
-        <v>943309674</v>
+        <v>1391983526</v>
       </c>
       <c r="G21">
-        <v>1152474314</v>
+        <v>1484123958</v>
       </c>
       <c r="H21">
-        <v>0.81850819800570407</v>
+        <v>0.9379159459670956</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>47</v>
+        <v>453</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>244</v>
       </c>
       <c r="E22">
-        <v>0.118011</v>
+        <v>2.13</v>
       </c>
       <c r="F22">
-        <v>910033540</v>
+        <v>42021131</v>
       </c>
       <c r="G22">
-        <v>1180189014</v>
+        <v>44851014</v>
       </c>
       <c r="H22">
-        <v>0.77109134994879724</v>
+        <v>0.93690481557451522</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="E23">
-        <v>0.64334100000000005</v>
+        <v>1.23</v>
       </c>
       <c r="F23">
-        <v>895656591</v>
+        <v>157123297</v>
       </c>
       <c r="G23">
-        <v>1169932035</v>
+        <v>167954113</v>
       </c>
       <c r="H23">
-        <v>0.76556292520018054</v>
+        <v>0.93551324342976938</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="E24">
-        <v>2.66</v>
+        <v>4.08</v>
       </c>
       <c r="F24">
-        <v>855742759</v>
+        <v>1789570576</v>
       </c>
       <c r="G24">
-        <v>857675583</v>
+        <v>1912938446</v>
       </c>
       <c r="H24">
-        <v>0.99774643928507412</v>
+        <v>0.93550870899271998</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E25">
-        <v>924.03</v>
+        <v>0.766482</v>
       </c>
       <c r="F25">
-        <v>832897417</v>
+        <v>7142184194</v>
       </c>
       <c r="G25">
-        <v>929249210</v>
+        <v>7663724340</v>
       </c>
       <c r="H25">
-        <v>0.89631221424444363</v>
+        <v>0.93194690690035964</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="E26">
-        <v>0.74628099999999997</v>
+        <v>1.19</v>
       </c>
       <c r="F26">
-        <v>807181400</v>
+        <v>110752884</v>
       </c>
       <c r="G26">
-        <v>1492171557</v>
+        <v>119339468</v>
       </c>
       <c r="H26">
-        <v>0.54094410003554305</v>
+        <v>0.92804908431467115</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="E27">
-        <v>0.85811199999999999</v>
+        <v>30069</v>
       </c>
       <c r="F27">
-        <v>804589247</v>
-      </c>
-      <c r="H27" t="s">
-        <v>101</v>
+        <v>584439715817</v>
+      </c>
+      <c r="G27">
+        <v>631586343080</v>
+      </c>
+      <c r="H27">
+        <v>0.92535204761856582</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="E28">
-        <v>0.41337800000000002</v>
+        <v>0.23580999999999999</v>
       </c>
       <c r="F28">
-        <v>760459369</v>
+        <v>293966755</v>
       </c>
       <c r="G28">
-        <v>906859047</v>
+        <v>324289050</v>
       </c>
       <c r="H28">
-        <v>0.83856402107437977</v>
+        <v>0.90649608736403531</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="E29">
-        <v>2.0499999999999998</v>
+        <v>74.16</v>
       </c>
       <c r="F29">
-        <v>756266388</v>
+        <v>1075105697</v>
       </c>
       <c r="G29">
-        <v>2051761291</v>
+        <v>1187449519</v>
       </c>
       <c r="H29">
-        <v>0.36859374982720639</v>
+        <v>0.90539065433736554</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E30">
-        <v>6.37</v>
+        <v>7010.35</v>
       </c>
       <c r="F30">
-        <v>735942090</v>
+        <v>231609337</v>
       </c>
       <c r="G30">
-        <v>1717984006</v>
+        <v>257067019</v>
       </c>
       <c r="H30">
-        <v>0.42837540246576661</v>
+        <v>0.90096869641608912</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="E31">
-        <v>0.79872200000000004</v>
+        <v>24.46</v>
       </c>
       <c r="F31">
-        <v>695344233</v>
+        <v>219502891</v>
       </c>
       <c r="G31">
-        <v>2637711777</v>
+        <v>244432621</v>
       </c>
       <c r="H31">
-        <v>0.26361645690904462</v>
+        <v>0.89800980778257089</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>34.67</v>
+        <v>924.03</v>
       </c>
       <c r="F32">
-        <v>677682170</v>
+        <v>832897417</v>
       </c>
       <c r="G32">
-        <v>677682170</v>
+        <v>929249210</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0.89631221424444363</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="E33">
-        <v>0.64747500000000002</v>
+        <v>0.47256199999999998</v>
       </c>
       <c r="F33">
-        <v>670098045</v>
+        <v>441959304</v>
       </c>
       <c r="G33">
-        <v>933760888</v>
+        <v>497853085</v>
       </c>
       <c r="H33">
-        <v>0.71763344728998757</v>
+        <v>0.88773037130019994</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="E34">
-        <v>8.1201999999999996E-2</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F34">
-        <v>566731140</v>
+        <v>1798512531</v>
       </c>
       <c r="G34">
-        <v>722171008</v>
+        <v>2046665879</v>
       </c>
       <c r="H34">
-        <v>0.78476030430731447</v>
+        <v>0.8787523891680612</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>96</v>
+        <v>410</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="E35">
-        <v>0.47256199999999998</v>
+        <v>0.113645</v>
       </c>
       <c r="F35">
-        <v>441959304</v>
+        <v>49479420</v>
       </c>
       <c r="G35">
-        <v>497853085</v>
+        <v>56872897</v>
       </c>
       <c r="H35">
-        <v>0.88773037130019994</v>
+        <v>0.86999999314260357</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="E36">
-        <v>32.94</v>
+        <v>0.21976499999999999</v>
       </c>
       <c r="F36">
-        <v>374448986</v>
+        <v>185649829</v>
       </c>
       <c r="G36">
-        <v>623112204</v>
+        <v>219056866</v>
       </c>
       <c r="H36">
-        <v>0.60093348131567004</v>
+        <v>0.84749605155037688</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="E37">
-        <v>0.39120100000000002</v>
+        <v>0.41337800000000002</v>
       </c>
       <c r="F37">
-        <v>370373391</v>
+        <v>760459369</v>
       </c>
       <c r="G37">
-        <v>584739180</v>
+        <v>906859047</v>
       </c>
       <c r="H37">
-        <v>0.63339930633688679</v>
+        <v>0.83856402107437977</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E38">
-        <v>0.31872600000000001</v>
+        <v>3.78</v>
       </c>
       <c r="F38">
-        <v>319343583</v>
+        <v>310924612</v>
       </c>
       <c r="G38">
-        <v>319343583</v>
+        <v>378656857</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.82112500078138029</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="E39">
-        <v>3.96</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="F39">
-        <v>312386953</v>
+        <v>943309674</v>
       </c>
       <c r="G39">
-        <v>395635478</v>
+        <v>1152474314</v>
       </c>
       <c r="H39">
-        <v>0.78958276082611578</v>
+        <v>0.81850819800570407</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>116</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E40">
-        <v>3.78</v>
+        <v>8.9632000000000003E-2</v>
       </c>
       <c r="F40">
-        <v>310924612</v>
+        <v>71449036</v>
       </c>
       <c r="G40">
-        <v>378656857</v>
+        <v>89088572</v>
       </c>
       <c r="H40">
-        <v>0.82112500078138029</v>
+        <v>0.80200001409832899</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="E41">
-        <v>0.203239</v>
+        <v>3.96</v>
       </c>
       <c r="F41">
-        <v>301859562</v>
+        <v>312386953</v>
       </c>
       <c r="G41">
-        <v>303915635</v>
+        <v>395635478</v>
       </c>
       <c r="H41">
-        <v>0.99323472449846151</v>
+        <v>0.78958276082611578</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E42">
-        <v>0.23580999999999999</v>
+        <v>8.1201999999999996E-2</v>
       </c>
       <c r="F42">
-        <v>293966755</v>
+        <v>566731140</v>
       </c>
       <c r="G42">
-        <v>324289050</v>
+        <v>722171008</v>
       </c>
       <c r="H42">
-        <v>0.90649608736403531</v>
+        <v>0.78476030430731447</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>130</v>
+        <v>592</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="E43">
-        <v>0.53858200000000001</v>
+        <v>14.12</v>
       </c>
       <c r="F43">
-        <v>274472318</v>
+        <v>26346832</v>
       </c>
       <c r="G43">
-        <v>543410905</v>
+        <v>33823329</v>
       </c>
       <c r="H43">
-        <v>0.50509166355430424</v>
+        <v>0.7789544311265163</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E44">
-        <v>31.94</v>
+        <v>0.72800900000000002</v>
       </c>
       <c r="F44">
-        <v>264702218</v>
+        <v>140605249</v>
       </c>
       <c r="G44">
-        <v>670804022</v>
+        <v>182330245</v>
       </c>
       <c r="H44">
-        <v>0.3946043990773806</v>
+        <v>0.77115702334519431</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="E45">
-        <v>9.9</v>
+        <v>0.118011</v>
       </c>
       <c r="F45">
-        <v>255338391</v>
+        <v>910033540</v>
       </c>
       <c r="G45">
-        <v>990327272</v>
+        <v>1180189014</v>
       </c>
       <c r="H45">
-        <v>0.25783233302697528</v>
+        <v>0.77109134994879724</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="E46">
-        <v>7010.35</v>
+        <v>0.64334100000000005</v>
       </c>
       <c r="F46">
-        <v>231609337</v>
+        <v>895656591</v>
       </c>
       <c r="G46">
-        <v>257067019</v>
+        <v>1169932035</v>
       </c>
       <c r="H46">
-        <v>0.90096869641608912</v>
+        <v>0.76556292520018054</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="E47">
-        <v>40.85</v>
+        <v>26.46</v>
       </c>
       <c r="F47">
-        <v>228890825</v>
+        <v>10647777403</v>
       </c>
       <c r="G47">
-        <v>392732510</v>
+        <v>14614132303</v>
       </c>
       <c r="H47">
-        <v>0.58281608772342275</v>
+        <v>0.72859456738421724</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="E48">
-        <v>24.46</v>
+        <v>0.604209</v>
       </c>
       <c r="F48">
-        <v>219502891</v>
+        <v>109673312</v>
       </c>
       <c r="G48">
-        <v>244432621</v>
+        <v>152310961</v>
       </c>
       <c r="H48">
-        <v>0.89800980778257089</v>
+        <v>0.72006184768278103</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C49" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E49">
-        <v>0.20497899999999999</v>
+        <v>0.64747500000000002</v>
       </c>
       <c r="F49">
-        <v>203581135</v>
+        <v>670098045</v>
       </c>
       <c r="G49">
-        <v>203581135</v>
+        <v>933760888</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.71763344728998757</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E50">
-        <v>4.7699999999999996</v>
+        <v>1.095</v>
       </c>
       <c r="F50">
-        <v>201099825</v>
+        <v>94933310</v>
       </c>
       <c r="G50">
-        <v>458996112</v>
+        <v>137983288</v>
       </c>
       <c r="H50">
-        <v>0.43812969160836812</v>
+        <v>0.6880058547380028</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="E51">
-        <v>0.21976499999999999</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F51">
-        <v>185649829</v>
+        <v>2694187758</v>
       </c>
       <c r="G51">
-        <v>219056866</v>
+        <v>3996843755</v>
       </c>
       <c r="H51">
-        <v>0.84749605155037688</v>
+        <v>0.67407882898339622</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E52">
-        <v>1.23</v>
+        <v>2.9710710000000001E-2</v>
       </c>
       <c r="F52">
-        <v>157123297</v>
+        <v>138236866</v>
       </c>
       <c r="G52">
-        <v>167954113</v>
+        <v>208179721</v>
       </c>
       <c r="H52">
-        <v>0.93551324342976938</v>
+        <v>0.66402656961962203</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="E53">
-        <v>0.72800900000000002</v>
+        <v>8.14</v>
       </c>
       <c r="F53">
-        <v>140605249</v>
+        <v>113281083</v>
       </c>
       <c r="G53">
-        <v>182330245</v>
+        <v>170976412</v>
       </c>
       <c r="H53">
-        <v>0.77115702334519431</v>
+        <v>0.66255386737206767</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>205</v>
+        <v>528</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="E54">
-        <v>0.232623</v>
+        <v>4.97</v>
       </c>
       <c r="F54">
-        <v>140530756</v>
+        <v>32347380</v>
       </c>
       <c r="G54">
-        <v>233112204</v>
+        <v>49765198</v>
       </c>
       <c r="H54">
-        <v>0.6028459839880369</v>
+        <v>0.65000002612267316</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E55">
-        <v>2.9710710000000001E-2</v>
+        <v>5.2266E-2</v>
       </c>
       <c r="F55">
-        <v>138236866</v>
+        <v>1689564255</v>
       </c>
       <c r="G55">
-        <v>208179721</v>
+        <v>2615629390</v>
       </c>
       <c r="H55">
-        <v>0.66402656961962203</v>
+        <v>0.64594940761083897</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E56">
-        <v>4.3499999999999996</v>
+        <v>0.39120100000000002</v>
       </c>
       <c r="F56">
-        <v>123924163</v>
+        <v>370373391</v>
       </c>
       <c r="G56">
-        <v>123924163</v>
+        <v>584739180</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.63339930633688679</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2692,813 +2692,813 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>240</v>
+        <v>593</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="E58">
-        <v>8.14</v>
+        <v>2.79</v>
       </c>
       <c r="F58">
-        <v>113281083</v>
+        <v>26285821</v>
       </c>
       <c r="G58">
-        <v>170976412</v>
+        <v>42261519</v>
       </c>
       <c r="H58">
-        <v>0.66255386737206767</v>
+        <v>0.62198003342000086</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>242</v>
+        <v>603</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E59">
-        <v>1.19</v>
+        <v>17.46</v>
       </c>
       <c r="F59">
-        <v>110752884</v>
+        <v>25384503</v>
       </c>
       <c r="G59">
-        <v>119339468</v>
+        <v>41374065</v>
       </c>
       <c r="H59">
-        <v>0.92804908431467115</v>
+        <v>0.6135365959327419</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>244</v>
+        <v>561</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="E60">
-        <v>0.604209</v>
+        <v>1.55</v>
       </c>
       <c r="F60">
-        <v>109673312</v>
+        <v>28318675</v>
       </c>
       <c r="G60">
-        <v>152310961</v>
+        <v>46494669</v>
       </c>
       <c r="H60">
-        <v>0.72006184768278103</v>
+        <v>0.60907359078091294</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>255</v>
+        <v>547</v>
       </c>
       <c r="B61" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="E61">
-        <v>2.511261E-2</v>
+        <v>4.7996799999999999E-2</v>
       </c>
       <c r="F61">
-        <v>99387867</v>
+        <v>29112279</v>
       </c>
       <c r="G61">
-        <v>170767402</v>
+        <v>48014730</v>
       </c>
       <c r="H61">
-        <v>0.58200725569391754</v>
+        <v>0.60631974812729339</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E62">
-        <v>1.9366129999999999E-2</v>
+        <v>0.232623</v>
       </c>
       <c r="F62">
-        <v>95704493</v>
+        <v>140530756</v>
       </c>
       <c r="G62">
-        <v>193589145</v>
+        <v>233112204</v>
       </c>
       <c r="H62">
-        <v>0.49436910835057413</v>
+        <v>0.6028459839880369</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>266</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E63">
-        <v>1.095</v>
+        <v>32.94</v>
       </c>
       <c r="F63">
-        <v>94933310</v>
+        <v>374448986</v>
       </c>
       <c r="G63">
-        <v>137983288</v>
+        <v>623112204</v>
       </c>
       <c r="H63">
-        <v>0.6880058547380028</v>
+        <v>0.60093348131567004</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>281</v>
+        <v>539</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="E64">
-        <v>1.5628719999999999E-2</v>
+        <v>5.1395000000000003E-2</v>
       </c>
       <c r="F64">
-        <v>88252861</v>
+        <v>30352170</v>
       </c>
       <c r="G64">
-        <v>156325508</v>
+        <v>51310016</v>
       </c>
       <c r="H64">
-        <v>0.56454549311299851</v>
+        <v>0.5915447385555288</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="E65">
-        <v>13.26</v>
+        <v>7.8199999999999997E-6</v>
       </c>
       <c r="F65">
-        <v>83360777</v>
+        <v>4609143955</v>
       </c>
       <c r="G65">
-        <v>146180030</v>
+        <v>7820795716</v>
       </c>
       <c r="H65">
-        <v>0.57026104728532345</v>
+        <v>0.58934462967374102</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>328</v>
+        <v>665</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="E66">
-        <v>0.93026500000000001</v>
+        <v>3.66135E-2</v>
       </c>
       <c r="F66">
-        <v>71931846</v>
+        <v>21354084</v>
       </c>
       <c r="G66">
-        <v>74463607</v>
+        <v>36603565</v>
       </c>
       <c r="H66">
-        <v>0.96600002199732282</v>
+        <v>0.58338809348215126</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E67">
-        <v>8.9632000000000003E-2</v>
+        <v>40.85</v>
       </c>
       <c r="F67">
-        <v>71449036</v>
+        <v>228890825</v>
       </c>
       <c r="G67">
-        <v>89088572</v>
+        <v>392732510</v>
       </c>
       <c r="H67">
-        <v>0.80200001409832899</v>
+        <v>0.58281608772342275</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="E68">
-        <v>6.6153000000000003E-2</v>
+        <v>2.511261E-2</v>
       </c>
       <c r="F68">
-        <v>66197383</v>
+        <v>99387867</v>
       </c>
       <c r="G68">
-        <v>66197383</v>
+        <v>170767402</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0.58200725569391754</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="B69" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="E69">
-        <v>0.136014</v>
+        <v>13.26</v>
       </c>
       <c r="F69">
-        <v>59387843</v>
+        <v>83360777</v>
       </c>
       <c r="G69">
-        <v>59387843</v>
+        <v>146180030</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0.57026104728532345</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="E70">
-        <v>4.9333000000000005E-4</v>
+        <v>1.5628719999999999E-2</v>
       </c>
       <c r="F70">
-        <v>58262347</v>
+        <v>88252861</v>
       </c>
       <c r="G70">
-        <v>103658265</v>
+        <v>156325508</v>
       </c>
       <c r="H70">
-        <v>0.56206176130769703</v>
+        <v>0.56454549311299851</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="E71">
-        <v>0.38647700000000001</v>
+        <v>4.9333000000000005E-4</v>
       </c>
       <c r="F71">
-        <v>57805891</v>
+        <v>58262347</v>
       </c>
       <c r="G71">
-        <v>57805891</v>
+        <v>103658265</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0.56206176130769703</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>410</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="E72">
-        <v>0.113645</v>
+        <v>0.127108</v>
       </c>
       <c r="F72">
-        <v>49479420</v>
+        <v>3448906493</v>
       </c>
       <c r="G72">
-        <v>56872897</v>
+        <v>6354497556</v>
       </c>
       <c r="H72">
-        <v>0.86999999314260357</v>
+        <v>0.54275046336960142</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>415</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>0.95466700000000004</v>
+        <v>0.74628099999999997</v>
       </c>
       <c r="F73">
-        <v>48780140</v>
+        <v>807181400</v>
       </c>
       <c r="G73">
-        <v>50296796</v>
+        <v>1492171557</v>
       </c>
       <c r="H73">
-        <v>0.96984587248857757</v>
+        <v>0.54094410003554305</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>434</v>
+        <v>939</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="E74">
-        <v>0.31076199999999998</v>
+        <v>1.93</v>
       </c>
       <c r="F74">
-        <v>44698929</v>
+        <v>10051523</v>
       </c>
       <c r="G74">
-        <v>132118944</v>
+        <v>19248236</v>
       </c>
       <c r="H74">
-        <v>0.33832338986905619</v>
+        <v>0.52220489191840747</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>453</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="E75">
-        <v>2.13</v>
+        <v>7.13</v>
       </c>
       <c r="F75">
-        <v>42021131</v>
+        <v>3670903052</v>
       </c>
       <c r="G75">
-        <v>44851014</v>
+        <v>7099020013</v>
       </c>
       <c r="H75">
-        <v>0.93690481557451522</v>
+        <v>0.51709997228880888</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>486</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E76">
-        <v>0.509521</v>
+        <v>0.53858200000000001</v>
       </c>
       <c r="F76">
-        <v>36998270</v>
+        <v>274472318</v>
       </c>
       <c r="G76">
-        <v>76432322</v>
+        <v>543410905</v>
       </c>
       <c r="H76">
-        <v>0.48406575950943898</v>
+        <v>0.50509166355430424</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>528</v>
+        <v>264</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="E77">
-        <v>4.97</v>
+        <v>1.9366129999999999E-2</v>
       </c>
       <c r="F77">
-        <v>32347380</v>
+        <v>95704493</v>
       </c>
       <c r="G77">
-        <v>49765198</v>
+        <v>193589145</v>
       </c>
       <c r="H77">
-        <v>0.65000002612267316</v>
+        <v>0.49436910835057413</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="E78">
-        <v>0.32447799999999999</v>
+        <v>0.509521</v>
       </c>
       <c r="F78">
-        <v>32313885</v>
+        <v>36998270</v>
       </c>
       <c r="G78">
-        <v>32541208</v>
+        <v>76432322</v>
       </c>
       <c r="H78">
-        <v>0.99301430358700882</v>
+        <v>0.48406575950943898</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>539</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="C79" t="s">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="E79">
-        <v>5.1395000000000003E-2</v>
+        <v>14.24</v>
       </c>
       <c r="F79">
-        <v>30352170</v>
+        <v>4923011366</v>
       </c>
       <c r="G79">
-        <v>51310016</v>
+        <v>10248161249</v>
       </c>
       <c r="H79">
-        <v>0.5915447385555288</v>
+        <v>0.48037996733124982</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>547</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="E80">
-        <v>4.7996799999999999E-2</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F80">
-        <v>29112279</v>
+        <v>201099825</v>
       </c>
       <c r="G80">
-        <v>48014730</v>
+        <v>458996112</v>
       </c>
       <c r="H80">
-        <v>0.60631974812729339</v>
+        <v>0.43812969160836812</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>561</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="E81">
-        <v>1.55</v>
+        <v>6.37</v>
       </c>
       <c r="F81">
-        <v>28318675</v>
+        <v>735942090</v>
       </c>
       <c r="G81">
-        <v>46494669</v>
+        <v>1717984006</v>
       </c>
       <c r="H81">
-        <v>0.60907359078091294</v>
+        <v>0.42837540246576661</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>589</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="E82">
-        <v>10.73</v>
+        <v>31.94</v>
       </c>
       <c r="F82">
-        <v>26466884</v>
+        <v>264702218</v>
       </c>
       <c r="G82">
-        <v>26704984</v>
+        <v>670804022</v>
       </c>
       <c r="H82">
-        <v>0.99108406131230031</v>
+        <v>0.3946043990773806</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>592</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="E83">
-        <v>14.12</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F83">
-        <v>26346832</v>
+        <v>756266388</v>
       </c>
       <c r="G83">
-        <v>33823329</v>
+        <v>2051761291</v>
       </c>
       <c r="H83">
-        <v>0.7789544311265163</v>
+        <v>0.36859374982720639</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>593</v>
+        <v>434</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="D84" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E84">
-        <v>2.79</v>
+        <v>0.31076199999999998</v>
       </c>
       <c r="F84">
-        <v>26285821</v>
+        <v>44698929</v>
       </c>
       <c r="G84">
-        <v>42261519</v>
+        <v>132118944</v>
       </c>
       <c r="H84">
-        <v>0.62198003342000086</v>
+        <v>0.33832338986905619</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>603</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E85">
-        <v>17.46</v>
+        <v>0.79872200000000004</v>
       </c>
       <c r="F85">
-        <v>25384503</v>
+        <v>695344233</v>
       </c>
       <c r="G85">
-        <v>41374065</v>
+        <v>2637711777</v>
       </c>
       <c r="H85">
-        <v>0.6135365959327419</v>
+        <v>0.26361645690904462</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>665</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="D86" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="E86">
-        <v>3.66135E-2</v>
+        <v>9.9</v>
       </c>
       <c r="F86">
-        <v>21354084</v>
+        <v>255338391</v>
       </c>
       <c r="G86">
-        <v>36603565</v>
+        <v>990327272</v>
       </c>
       <c r="H86">
-        <v>0.58338809348215126</v>
+        <v>0.25783233302697528</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>939</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>1.93</v>
+        <v>1.51</v>
       </c>
       <c r="F87">
-        <v>10051523</v>
+        <v>973502722</v>
       </c>
       <c r="G87">
-        <v>19248236</v>
+        <v>6486497366</v>
       </c>
       <c r="H87">
-        <v>0.52220489191840747</v>
+        <v>0.15008141791635779</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>2840</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="E88">
-        <v>3.3972899999999999E-3</v>
+        <v>1.3</v>
       </c>
       <c r="F88">
-        <v>161650</v>
+        <v>1661483809</v>
       </c>
       <c r="G88">
-        <v>168632</v>
+        <v>13031245558</v>
       </c>
       <c r="H88">
-        <v>0.95859623321789456</v>
+        <v>0.12750000002724221</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
-    <sortCondition ref="A1:A88"/>
+    <sortCondition descending="1" ref="H1:H88"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
